--- a/src/test/resources/testdata/HomeLoan_YearlyData.xlsx
+++ b/src/test/resources/testdata/HomeLoan_YearlyData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2457134_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intelli J Practise\Major-Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A921D519-D680-4E12-B5B7-8D2F259E5C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5791D3-C66A-4F35-85AA-536FB0CC11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4D7ADF4-38C0-4DE9-91B8-980A85538E40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="0" xr2:uid="{B4D7ADF4-38C0-4DE9-91B8-980A85538E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Yearly_Breakup" r:id="rId5" sheetId="2"/>
+    <sheet name="Yearly_Breakup" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,309 +37,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="117">
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 1,43,564</t>
-  </si>
-  <si>
-    <t>₹ 4,75,132</t>
-  </si>
-  <si>
     <t>₹ 54,000</t>
   </si>
   <si>
     <t>₹ 6,72,696</t>
   </si>
   <si>
-    <t>₹ 62,56,436</t>
-  </si>
-  <si>
-    <t>2.24%</t>
-  </si>
-  <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 1,54,709</t>
-  </si>
-  <si>
-    <t>₹ 4,63,986</t>
-  </si>
-  <si>
-    <t>₹ 61,01,727</t>
-  </si>
-  <si>
-    <t>4.66%</t>
-  </si>
-  <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 1,66,720</t>
-  </si>
-  <si>
-    <t>₹ 4,51,976</t>
-  </si>
-  <si>
-    <t>₹ 59,35,007</t>
-  </si>
-  <si>
-    <t>7.27%</t>
-  </si>
-  <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 1,79,663</t>
-  </si>
-  <si>
-    <t>₹ 4,39,033</t>
-  </si>
-  <si>
-    <t>₹ 57,55,345</t>
-  </si>
-  <si>
-    <t>10.07%</t>
-  </si>
-  <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 1,93,610</t>
-  </si>
-  <si>
-    <t>₹ 4,25,085</t>
-  </si>
-  <si>
-    <t>₹ 55,61,734</t>
-  </si>
-  <si>
-    <t>13.1%</t>
-  </si>
-  <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 2,08,641</t>
-  </si>
-  <si>
-    <t>₹ 4,10,055</t>
-  </si>
-  <si>
-    <t>₹ 53,53,094</t>
-  </si>
-  <si>
-    <t>16.36%</t>
-  </si>
-  <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 2,24,838</t>
-  </si>
-  <si>
-    <t>₹ 3,93,858</t>
-  </si>
-  <si>
-    <t>₹ 51,28,256</t>
-  </si>
-  <si>
-    <t>19.87%</t>
-  </si>
-  <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 2,42,293</t>
-  </si>
-  <si>
-    <t>₹ 3,76,403</t>
-  </si>
-  <si>
-    <t>₹ 48,85,963</t>
-  </si>
-  <si>
-    <t>23.66%</t>
-  </si>
-  <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 2,61,103</t>
-  </si>
-  <si>
-    <t>₹ 3,57,593</t>
-  </si>
-  <si>
-    <t>₹ 46,24,860</t>
-  </si>
-  <si>
-    <t>27.74%</t>
-  </si>
-  <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 2,81,373</t>
-  </si>
-  <si>
-    <t>₹ 3,37,323</t>
-  </si>
-  <si>
-    <t>₹ 43,43,487</t>
-  </si>
-  <si>
-    <t>32.13%</t>
-  </si>
-  <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 3,03,216</t>
-  </si>
-  <si>
-    <t>₹ 3,15,479</t>
-  </si>
-  <si>
-    <t>₹ 40,40,271</t>
-  </si>
-  <si>
-    <t>36.87%</t>
-  </si>
-  <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 3,26,756</t>
-  </si>
-  <si>
-    <t>₹ 2,91,940</t>
-  </si>
-  <si>
-    <t>₹ 37,13,515</t>
-  </si>
-  <si>
-    <t>41.98%</t>
-  </si>
-  <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 3,52,123</t>
-  </si>
-  <si>
-    <t>₹ 2,66,573</t>
-  </si>
-  <si>
-    <t>₹ 33,61,392</t>
-  </si>
-  <si>
-    <t>47.48%</t>
-  </si>
-  <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 3,79,459</t>
-  </si>
-  <si>
-    <t>₹ 2,39,237</t>
-  </si>
-  <si>
-    <t>₹ 29,81,933</t>
-  </si>
-  <si>
-    <t>53.41%</t>
-  </si>
-  <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 4,08,917</t>
-  </si>
-  <si>
-    <t>₹ 2,09,778</t>
-  </si>
-  <si>
-    <t>₹ 25,73,016</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 4,40,663</t>
-  </si>
-  <si>
-    <t>₹ 1,78,033</t>
-  </si>
-  <si>
-    <t>₹ 21,32,353</t>
-  </si>
-  <si>
-    <t>66.68%</t>
-  </si>
-  <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 4,74,872</t>
-  </si>
-  <si>
-    <t>₹ 1,43,823</t>
-  </si>
-  <si>
-    <t>₹ 16,57,481</t>
-  </si>
-  <si>
-    <t>74.1%</t>
-  </si>
-  <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 5,11,738</t>
-  </si>
-  <si>
-    <t>₹ 1,06,958</t>
-  </si>
-  <si>
-    <t>₹ 11,45,743</t>
-  </si>
-  <si>
-    <t>82.1%</t>
-  </si>
-  <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 5,51,466</t>
-  </si>
-  <si>
-    <t>₹ 67,230</t>
-  </si>
-  <si>
-    <t>₹ 5,94,277</t>
-  </si>
-  <si>
-    <t>90.71%</t>
-  </si>
-  <si>
     <t>2045</t>
   </si>
   <si>
-    <t>₹ 24,418</t>
-  </si>
-  <si>
     <t>₹ 0</t>
   </si>
   <si>
     <t>100%</t>
+  </si>
+  <si>
+    <t>₹ 1,31,186</t>
+  </si>
+  <si>
+    <t>₹ 4,35,952</t>
+  </si>
+  <si>
+    <t>₹ 49,500</t>
+  </si>
+  <si>
+    <t>₹ 6,16,638</t>
+  </si>
+  <si>
+    <t>₹ 62,68,814</t>
+  </si>
+  <si>
+    <t>2.05%</t>
+  </si>
+  <si>
+    <t>₹ 1,53,748</t>
+  </si>
+  <si>
+    <t>₹ 4,64,947</t>
+  </si>
+  <si>
+    <t>₹ 61,15,066</t>
+  </si>
+  <si>
+    <t>4.45%</t>
+  </si>
+  <si>
+    <t>₹ 1,65,684</t>
+  </si>
+  <si>
+    <t>₹ 4,53,011</t>
+  </si>
+  <si>
+    <t>₹ 59,49,381</t>
+  </si>
+  <si>
+    <t>7.04%</t>
+  </si>
+  <si>
+    <t>₹ 1,78,547</t>
+  </si>
+  <si>
+    <t>₹ 4,40,149</t>
+  </si>
+  <si>
+    <t>₹ 57,70,835</t>
+  </si>
+  <si>
+    <t>9.83%</t>
+  </si>
+  <si>
+    <t>₹ 1,92,408</t>
+  </si>
+  <si>
+    <t>₹ 4,26,288</t>
+  </si>
+  <si>
+    <t>₹ 55,78,427</t>
+  </si>
+  <si>
+    <t>12.84%</t>
+  </si>
+  <si>
+    <t>₹ 2,07,345</t>
+  </si>
+  <si>
+    <t>₹ 4,11,351</t>
+  </si>
+  <si>
+    <t>₹ 53,71,082</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>₹ 2,23,442</t>
+  </si>
+  <si>
+    <t>₹ 3,95,254</t>
+  </si>
+  <si>
+    <t>₹ 51,47,641</t>
+  </si>
+  <si>
+    <t>19.57%</t>
+  </si>
+  <si>
+    <t>₹ 2,40,788</t>
+  </si>
+  <si>
+    <t>₹ 3,77,908</t>
+  </si>
+  <si>
+    <t>₹ 49,06,853</t>
+  </si>
+  <si>
+    <t>23.33%</t>
+  </si>
+  <si>
+    <t>₹ 2,59,481</t>
+  </si>
+  <si>
+    <t>₹ 3,59,215</t>
+  </si>
+  <si>
+    <t>₹ 46,47,372</t>
+  </si>
+  <si>
+    <t>27.38%</t>
+  </si>
+  <si>
+    <t>₹ 2,79,625</t>
+  </si>
+  <si>
+    <t>₹ 3,39,071</t>
+  </si>
+  <si>
+    <t>₹ 43,67,747</t>
+  </si>
+  <si>
+    <t>31.75%</t>
+  </si>
+  <si>
+    <t>₹ 3,01,333</t>
+  </si>
+  <si>
+    <t>₹ 3,17,363</t>
+  </si>
+  <si>
+    <t>₹ 40,66,414</t>
+  </si>
+  <si>
+    <t>36.46%</t>
+  </si>
+  <si>
+    <t>₹ 3,24,726</t>
+  </si>
+  <si>
+    <t>₹ 2,93,969</t>
+  </si>
+  <si>
+    <t>₹ 37,41,688</t>
+  </si>
+  <si>
+    <t>41.54%</t>
+  </si>
+  <si>
+    <t>₹ 3,49,936</t>
+  </si>
+  <si>
+    <t>₹ 2,68,760</t>
+  </si>
+  <si>
+    <t>₹ 33,91,752</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>₹ 3,77,102</t>
+  </si>
+  <si>
+    <t>₹ 2,41,593</t>
+  </si>
+  <si>
+    <t>₹ 30,14,650</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>₹ 4,06,377</t>
+  </si>
+  <si>
+    <t>₹ 2,12,318</t>
+  </si>
+  <si>
+    <t>₹ 26,08,272</t>
+  </si>
+  <si>
+    <t>59.25%</t>
+  </si>
+  <si>
+    <t>₹ 4,37,926</t>
+  </si>
+  <si>
+    <t>₹ 1,80,770</t>
+  </si>
+  <si>
+    <t>₹ 21,70,347</t>
+  </si>
+  <si>
+    <t>66.09%</t>
+  </si>
+  <si>
+    <t>₹ 4,71,923</t>
+  </si>
+  <si>
+    <t>₹ 1,46,773</t>
+  </si>
+  <si>
+    <t>₹ 16,98,424</t>
+  </si>
+  <si>
+    <t>73.46%</t>
+  </si>
+  <si>
+    <t>₹ 5,08,560</t>
+  </si>
+  <si>
+    <t>₹ 1,10,136</t>
+  </si>
+  <si>
+    <t>₹ 11,89,864</t>
+  </si>
+  <si>
+    <t>81.41%</t>
+  </si>
+  <si>
+    <t>₹ 5,48,040</t>
+  </si>
+  <si>
+    <t>₹ 70,655</t>
+  </si>
+  <si>
+    <t>₹ 6,41,824</t>
+  </si>
+  <si>
+    <t>89.97%</t>
+  </si>
+  <si>
+    <t>₹ 5,90,586</t>
+  </si>
+  <si>
+    <t>₹ 28,109</t>
+  </si>
+  <si>
+    <t>₹ 51,238</t>
+  </si>
+  <si>
+    <t>99.2%</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>₹ 320</t>
+  </si>
+  <si>
+    <t>₹ 4,500</t>
+  </si>
+  <si>
+    <t>₹ 56,058</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Interest(A)</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Total Pay</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Loan Paid to date</t>
   </si>
 </sst>
 </file>
@@ -347,9 +395,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -376,8 +440,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D26133-8F84-4DAA-BD84-90D7824939BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -726,470 +792,493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
